--- a/mbs-EP-v.1.0.2/Excel Files/flyball_governor/flyball_governor_simplified.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/flyball_governor/flyball_governor_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5468EE3-A143-4F94-9002-60B2F867BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BC314-55C4-4FA9-BEC8-F6559A4142E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="256">
   <si>
     <t>Mass</t>
   </si>
@@ -856,9 +856,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -2024,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,9 +2573,7 @@
         <v>240</v>
       </c>
       <c r="C20" s="78"/>
-      <c r="D20" s="45" t="s">
-        <v>256</v>
-      </c>
+      <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
         <v>117</v>
       </c>
@@ -2702,9 +2697,7 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
-      <c r="D24" s="63">
-        <v>4</v>
-      </c>
+      <c r="D24" s="63"/>
       <c r="E24" s="102"/>
       <c r="F24" s="107"/>
       <c r="G24" s="108"/>
@@ -3004,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK196"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,8 +3543,8 @@
       <c r="X6" s="28">
         <v>0</v>
       </c>
-      <c r="Y6" s="28">
-        <v>5265.4970999999996</v>
+      <c r="Y6" s="66">
+        <v>5268.8906999999999</v>
       </c>
       <c r="Z6" s="28">
         <v>0</v>
@@ -3666,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="74">
-        <v>-5265.4970999999996</v>
+        <v>-5268.8906999999999</v>
       </c>
       <c r="Z7" s="59">
         <v>0</v>
